--- a/2022-02-17--14-42-01/3331 ST 28C 16g acc cal.xlsx
+++ b/2022-02-17--14-42-01/3331 ST 28C 16g acc cal.xlsx
@@ -412,31 +412,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>32769.27756702594</v>
+        <v>32769.24175250794</v>
       </c>
       <c r="B2">
-        <v>32776.60810345669</v>
+        <v>32776.63122792842</v>
       </c>
       <c r="C2">
-        <v>32748.37024115165</v>
+        <v>32748.39972491985</v>
       </c>
       <c r="D2">
-        <v>-156.1641902917262</v>
+        <v>-156.1580044196448</v>
       </c>
       <c r="E2">
-        <v>145.1076879571826</v>
+        <v>145.1035303671109</v>
       </c>
       <c r="F2">
-        <v>167.3886855907008</v>
+        <v>167.3871963677475</v>
       </c>
       <c r="G2">
-        <v>-412.0428086474927</v>
+        <v>-411.6210318451936</v>
       </c>
       <c r="H2">
-        <v>-106.7923270453901</v>
+        <v>-106.5892063036656</v>
       </c>
       <c r="I2">
-        <v>917.832025598917</v>
+        <v>916.6896728495609</v>
       </c>
       <c r="J2">
         <v>2072.758984231757</v>
@@ -447,452 +447,131 @@
     </row>
     <row r="3" spans="1:11">
       <c r="D3">
-        <v>0.004776440227112638</v>
+        <v>0.004776449570302441</v>
       </c>
       <c r="E3">
-        <v>1.210633219026697E-05</v>
+        <v>1.209353709690073E-05</v>
       </c>
       <c r="F3">
-        <v>-2.284723258559372E-05</v>
+        <v>-2.293508820527583E-05</v>
       </c>
       <c r="G3">
-        <v>0.009901671939722771</v>
+        <v>0.009893120449778966</v>
       </c>
       <c r="H3">
-        <v>0.004898277528778735</v>
+        <v>0.004894171628150175</v>
       </c>
       <c r="I3">
-        <v>-0.015683622382878</v>
+        <v>-0.01566041770673409</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="D4">
-        <v>9.568796321294516E-06</v>
+        <v>9.417687001094537E-06</v>
       </c>
       <c r="E4">
-        <v>-0.004769313849826338</v>
+        <v>-0.004769311135345089</v>
       </c>
       <c r="F4">
-        <v>-0.0003293403410707206</v>
+        <v>-0.0003292827373883641</v>
       </c>
       <c r="G4">
-        <v>0.005292824923221595</v>
+        <v>0.005284195024711116</v>
       </c>
       <c r="H4">
-        <v>0.001179139389689257</v>
+        <v>0.0011749855422947</v>
       </c>
       <c r="I4">
-        <v>-0.01560256188454877</v>
+        <v>-0.01557914636336128</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="D5">
-        <v>-2.045713954458825E-05</v>
+        <v>-2.04989046106759E-05</v>
       </c>
       <c r="E5">
-        <v>0.0003303226139635121</v>
+        <v>0.0003304627394767428</v>
       </c>
       <c r="F5">
-        <v>-0.004758873123911852</v>
+        <v>-0.004758792899002148</v>
       </c>
       <c r="G5">
-        <v>0.005032590903160984</v>
+        <v>0.005024002373585473</v>
       </c>
       <c r="H5">
-        <v>0.005152021012023947</v>
+        <v>0.005147896395446057</v>
       </c>
       <c r="I5">
-        <v>-0.01963740579007165</v>
+        <v>-0.01961413440637138</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="G6">
-        <v>-7.494407433804904E-08</v>
+        <v>-7.48137985079742E-08</v>
       </c>
       <c r="H6">
-        <v>-7.336635807893169E-08</v>
+        <v>-7.33039877709394E-08</v>
       </c>
       <c r="I6">
-        <v>2.440176408972126E-07</v>
+        <v>2.436645312390039E-07</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="G7">
-        <v>-7.964308722164099E-08</v>
+        <v>-7.951068626676734E-08</v>
       </c>
       <c r="H7">
-        <v>-1.055826115146351E-07</v>
+        <v>-1.055190057345781E-07</v>
       </c>
       <c r="I7">
-        <v>2.316206750284968E-07</v>
+        <v>2.312614460182771E-07</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="G8">
-        <v>-7.320302064409591E-08</v>
+        <v>-7.307119551113847E-08</v>
       </c>
       <c r="H8">
-        <v>-7.18779790218493E-08</v>
+        <v>-7.181492973220109E-08</v>
       </c>
       <c r="I8">
-        <v>2.209309822222983E-07</v>
+        <v>2.205734967082577E-07</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="G9">
-        <v>-6.62121287475094E-14</v>
+        <v>-6.620474229896434E-14</v>
       </c>
       <c r="H9">
-        <v>-2.41402114144232E-14</v>
+        <v>-2.413644467652027E-14</v>
       </c>
       <c r="I9">
-        <v>-1.028849940842069E-13</v>
+        <v>-1.029032418010044E-13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="G10">
-        <v>-1.934192102102205E-14</v>
+        <v>-1.935501083124539E-14</v>
       </c>
       <c r="H10">
-        <v>3.015537985462573E-13</v>
+        <v>3.015478669929387E-13</v>
       </c>
       <c r="I10">
-        <v>2.782227295362268E-14</v>
+        <v>2.785793741833878E-14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="G11">
-        <v>-8.026151120933144E-14</v>
+        <v>-8.027472885915127E-14</v>
       </c>
       <c r="H11">
-        <v>-3.536385063299698E-14</v>
+        <v>-3.536984480402243E-14</v>
       </c>
       <c r="I11">
-        <v>1.267727975338334E-13</v>
+        <v>1.268078004748749E-13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E10E8C65C4E72B49B1FA0A4D6C9FAEF5" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="420b32693838534c970442cba73f2a80">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="A566506B-8087-465B-910F-AFC65896D3D4" xmlns:ns3="abf84261-c6ce-4ce4-852c-ac0ae3810423" xmlns:ns4="a566506b-8087-465b-910f-afc65896d3d4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8dd5a481011a5361d892495802cdc1d" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="A566506B-8087-465B-910F-AFC65896D3D4"/>
-    <xsd:import namespace="abf84261-c6ce-4ce4-852c-ac0ae3810423"/>
-    <xsd:import namespace="a566506b-8087-465b-910f-afc65896d3d4"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:Documenttype" minOccurs="0"/>
-                <xsd:element ref="ns2:Customer" minOccurs="0"/>
-                <xsd:element ref="ns2:Projectname" minOccurs="0"/>
-                <xsd:element ref="ns2:DevicoCompany" minOccurs="0"/>
-                <xsd:element ref="ns2:Projecttype" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="A566506B-8087-465B-910F-AFC65896D3D4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Documenttype" ma:index="2" nillable="true" ma:displayName="Documenttype" ma:format="Dropdown" ma:internalName="Documenttype">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Administrative"/>
-          <xsd:enumeration value="Application"/>
-          <xsd:enumeration value="Contract"/>
-          <xsd:enumeration value="Documentation"/>
-          <xsd:enumeration value="Indicative document"/>
-          <xsd:enumeration value="Invoice"/>
-          <xsd:enumeration value="Templates and forms"/>
-          <xsd:enumeration value="Marketing materiell"/>
-          <xsd:enumeration value="Note"/>
-          <xsd:enumeration value="Presentation"/>
-          <xsd:enumeration value="Report"/>
-          <xsd:enumeration value="Minutes of meeting"/>
-          <xsd:enumeration value="Sales"/>
-          <xsd:enumeration value="QA-document"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Customer" ma:index="3" nillable="true" ma:displayName="Customer" ma:default="" ma:internalName="Customer">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Projectname" ma:index="4" nillable="true" ma:displayName="Projectname" ma:default="MiniGyro" ma:internalName="Projectname">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="DevicoCompany" ma:index="5" nillable="true" ma:displayName="DevicoCompany" ma:default="Devico AS" ma:format="Dropdown" ma:internalName="DevicoCompany">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Devico AS"/>
-          <xsd:enumeration value="DIO"/>
-          <xsd:enumeration value="USA"/>
-          <xsd:enumeration value="Bulgaria"/>
-          <xsd:enumeration value="Finland"/>
-          <xsd:enumeration value="Sweden"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Projecttype" ma:index="6" nillable="true" ma:displayName="Projecttype" ma:default="R&amp;D" ma:format="Dropdown" ma:internalName="Projecttype">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Administrative"/>
-          <xsd:enumeration value="DCD"/>
-          <xsd:enumeration value="R&amp;D"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="abf84261-c6ce-4ce4-852c-ac0ae3810423" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a566506b-8087-465b-910f-afc65896d3d4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="18" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="23" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="24" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="25" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="9" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Projectname xmlns="A566506B-8087-465B-910F-AFC65896D3D4">MiniGyro</Projectname>
-    <DevicoCompany xmlns="A566506B-8087-465B-910F-AFC65896D3D4">Devico AS</DevicoCompany>
-    <Projecttype xmlns="A566506B-8087-465B-910F-AFC65896D3D4">R&amp;D</Projecttype>
-    <Customer xmlns="A566506B-8087-465B-910F-AFC65896D3D4" xsi:nil="true"/>
-    <Documenttype xmlns="A566506B-8087-465B-910F-AFC65896D3D4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B86AC907-41CD-4FAF-8211-69BDBAF0DF47}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D790E2-119E-427C-BA0F-CB253C515FEF}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D69003-626B-47EF-9450-9E56777AF0FB}"/>
 </file>